--- a/raw/Obesity/obesity_raw.xlsx
+++ b/raw/Obesity/obesity_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bosse\Documents\GitHub\dopp2\raw\Obesity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DB2B51-A812-4BF3-BEF1-7A8B41AA055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0693F2-0FA6-46BB-AA98-3D6A2F7A944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="7500" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Overweight</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>BMI (Labels)</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
   </si>
 </sst>
 </file>
@@ -573,15 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8A662-B6CE-4770-9CA7-6A10774A9B11}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="19.88671875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -980,6 +984,17 @@
         <v>24.7</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="C37" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
